--- a/data_summary/ITEMMAST_analysis.xlsx
+++ b/data_summary/ITEMMAST_analysis.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaavedra\Documents\GitHub\SigmaTB_LocalRepo\data_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6007C59-3160-406F-9EE8-289F171AA867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E7C0F-23E8-47DB-A70F-781E8881D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36CEA9A6-60AC-4739-AB1E-C0D505CA18E2}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEMMAST_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="327">
   <si>
     <t>ITEM_NUMBER_____IMITEM</t>
   </si>
@@ -998,6 +1011,9 @@
   </si>
   <si>
     <t>SORTORDER</t>
+  </si>
+  <si>
+    <t>UseforDiagram</t>
   </si>
 </sst>
 </file>
@@ -1938,22 +1954,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EE107-DAB1-4A7F-AE08-A40F5E1052AD}">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A2:A39"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="189.7109375" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
     <col min="5" max="5" width="62.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>312</v>
       </c>
@@ -1970,34 +1990,37 @@
         <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2013,35 +2036,38 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <c r="F2" s="2">
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0</v>
       </c>
       <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2057,35 +2083,38 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
+      <c r="F3" s="2">
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0</v>
       </c>
       <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>124</v>
       </c>
@@ -2101,35 +2130,38 @@
       <c r="E4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
+      <c r="F4" s="2">
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0</v>
       </c>
       <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -2145,35 +2177,38 @@
       <c r="E5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
+      <c r="F5" s="2">
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
@@ -2189,35 +2224,38 @@
       <c r="E6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
+      <c r="F6" s="2">
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -2233,35 +2271,38 @@
       <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
+      <c r="F7" s="2">
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -2277,35 +2318,38 @@
       <c r="E8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
+      <c r="F8" s="2">
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -2321,35 +2365,38 @@
       <c r="E9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
+      <c r="F9" s="2">
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -2365,35 +2412,38 @@
       <c r="E10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
+      <c r="F10" s="2">
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -2409,35 +2459,38 @@
       <c r="E11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
+      <c r="F11" s="2">
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>3</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
       <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
       <c r="N11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -2453,35 +2506,38 @@
       <c r="E12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>4</v>
+      <c r="F12" s="2">
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -2497,35 +2553,38 @@
       <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>4</v>
+      <c r="F13" s="2">
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
@@ -2541,35 +2600,38 @@
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
+      <c r="F14" s="2">
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -2585,35 +2647,38 @@
       <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
+      <c r="F15" s="2">
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
         <v>1496</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>0.57250000000000001</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
       <c r="N15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2629,35 +2694,38 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
+      <c r="F16" s="2">
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <v>0</v>
       </c>
       <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -2673,35 +2741,38 @@
       <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
+      <c r="F17" s="2">
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -2717,35 +2788,38 @@
       <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>4</v>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -2761,35 +2835,38 @@
       <c r="E19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
+      <c r="F19" s="2">
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="3">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -2805,35 +2882,38 @@
       <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
+      <c r="F20" s="2">
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -2849,35 +2929,38 @@
       <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>4</v>
+      <c r="F21" s="2">
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -2893,35 +2976,38 @@
       <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
+      <c r="F22" s="2">
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -2937,35 +3023,38 @@
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>4</v>
+      <c r="F23" s="2">
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -2981,35 +3070,38 @@
       <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
+      <c r="F24" s="2">
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -3025,35 +3117,38 @@
       <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>4</v>
+      <c r="F25" s="2">
+        <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
         <v>2581</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
       <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
         <v>0.98780000000000001</v>
       </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
       <c r="N25" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -3069,35 +3164,38 @@
       <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>4</v>
+      <c r="F26" s="2">
+        <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -3113,35 +3211,38 @@
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>4</v>
+      <c r="F27" s="2">
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
       <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -3157,35 +3258,38 @@
       <c r="E28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>4</v>
+      <c r="F28" s="2">
+        <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="3">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
@@ -3201,35 +3305,38 @@
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>4</v>
+      <c r="F29" s="2">
+        <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>112</v>
       </c>
@@ -3245,35 +3352,38 @@
       <c r="E30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>4</v>
+      <c r="F30" s="2">
+        <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <v>36</v>
       </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
       <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
         <v>1.38E-2</v>
       </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
       <c r="N30" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>115</v>
       </c>
@@ -3289,35 +3399,38 @@
       <c r="E31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>4</v>
+      <c r="F31" s="2">
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
         <v>1118</v>
       </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
       <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
         <v>0.4279</v>
       </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
       <c r="N31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
@@ -3333,35 +3446,38 @@
       <c r="E32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>4</v>
+      <c r="F32" s="2">
+        <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -3377,35 +3493,38 @@
       <c r="E33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>4</v>
+      <c r="F33" s="2">
+        <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
@@ -3421,35 +3540,38 @@
       <c r="E34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>4</v>
+      <c r="F34" s="2">
+        <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="3">
         <v>0</v>
       </c>
       <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
@@ -3465,35 +3587,38 @@
       <c r="E35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>4</v>
+      <c r="F35" s="2">
+        <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
       <c r="N35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
@@ -3509,35 +3634,38 @@
       <c r="E36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
+      <c r="F36" s="2">
+        <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>0</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="3">
         <v>0</v>
       </c>
       <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>202</v>
       </c>
@@ -3553,35 +3681,38 @@
       <c r="E37" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>4</v>
+      <c r="F37" s="2">
+        <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>0</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -3597,35 +3728,38 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>4</v>
+      <c r="F38" s="2">
+        <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
         <v>2605</v>
       </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
       <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
         <v>0.99690000000000001</v>
       </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
       <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>242</v>
       </c>
@@ -3641,35 +3775,38 @@
       <c r="E39" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>4</v>
+      <c r="F39" s="2">
+        <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>29</v>
       </c>
@@ -3685,35 +3822,36 @@
       <c r="E40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="3">
         <v>0</v>
       </c>
       <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
@@ -3729,35 +3867,36 @@
       <c r="E41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
@@ -3773,35 +3912,36 @@
       <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>6</v>
       </c>
@@ -3817,35 +3957,36 @@
       <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
         <v>2283</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>0.87370000000000003</v>
       </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
       <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
@@ -3861,35 +4002,36 @@
       <c r="E44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
         <v>2581</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>0.98780000000000001</v>
       </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
       <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>35</v>
       </c>
@@ -3905,35 +4047,36 @@
       <c r="E45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>127</v>
       </c>
@@ -3949,35 +4092,36 @@
       <c r="E46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
         <v>2612</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
       <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>131</v>
       </c>
@@ -3993,35 +4137,36 @@
       <c r="E47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
       <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>133</v>
       </c>
@@ -4037,35 +4182,36 @@
       <c r="E48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="3">
         <v>0</v>
       </c>
       <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>135</v>
       </c>
@@ -4081,35 +4227,36 @@
       <c r="E49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
         <v>2612</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
       <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>138</v>
       </c>
@@ -4125,35 +4272,36 @@
       <c r="E50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I50" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="3">
         <v>0</v>
       </c>
       <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>141</v>
       </c>
@@ -4169,35 +4317,36 @@
       <c r="E51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
         <v>35</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
       <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
         <v>1.34E-2</v>
       </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
       <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>143</v>
       </c>
@@ -4213,35 +4362,36 @@
       <c r="E52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>146</v>
       </c>
@@ -4257,35 +4407,36 @@
       <c r="E53" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="3">
         <v>0</v>
       </c>
       <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>147</v>
       </c>
@@ -4301,35 +4452,36 @@
       <c r="E54" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>148</v>
       </c>
@@ -4345,35 +4497,36 @@
       <c r="E55" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I55" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
         <v>2612</v>
       </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
       <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
       <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>151</v>
       </c>
@@ -4389,35 +4542,36 @@
       <c r="E56" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>0</v>
       </c>
       <c r="L56" s="3">
         <v>0</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="3">
         <v>0</v>
       </c>
       <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>154</v>
       </c>
@@ -4433,35 +4587,36 @@
       <c r="E57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
         <v>2612</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
       <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>157</v>
       </c>
@@ -4477,35 +4632,36 @@
       <c r="E58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
         <v>2612</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
       <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>159</v>
       </c>
@@ -4521,35 +4677,36 @@
       <c r="E59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
         <v>2612</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
       <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
@@ -4565,35 +4722,36 @@
       <c r="E60" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>164</v>
       </c>
@@ -4609,35 +4767,36 @@
       <c r="E61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I61" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>165</v>
       </c>
@@ -4653,35 +4812,36 @@
       <c r="E62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="2">
         <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>166</v>
       </c>
@@ -4697,35 +4857,36 @@
       <c r="E63" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>0</v>
       </c>
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="3">
         <v>0</v>
       </c>
       <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>167</v>
       </c>
@@ -4741,35 +4902,36 @@
       <c r="E64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I64" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <v>0</v>
       </c>
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="3">
         <v>0</v>
       </c>
       <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>168</v>
       </c>
@@ -4785,35 +4947,36 @@
       <c r="E65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="2">
         <v>0</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="3">
         <v>0</v>
       </c>
       <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>169</v>
       </c>
@@ -4829,35 +4992,36 @@
       <c r="E66" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I66" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="3">
         <v>0</v>
       </c>
       <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>172</v>
       </c>
@@ -4873,35 +5037,36 @@
       <c r="E67" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I67" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="2">
         <v>0</v>
       </c>
       <c r="L67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="3">
         <v>0</v>
       </c>
       <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>173</v>
       </c>
@@ -4917,35 +5082,36 @@
       <c r="E68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I68" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <v>0</v>
       </c>
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="3">
         <v>0</v>
       </c>
       <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>174</v>
       </c>
@@ -4961,35 +5127,36 @@
       <c r="E69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I69" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <v>0</v>
       </c>
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="3">
         <v>0</v>
       </c>
       <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>175</v>
       </c>
@@ -5005,35 +5172,36 @@
       <c r="E70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H70" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I70" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="3">
         <v>0</v>
       </c>
       <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>176</v>
       </c>
@@ -5049,35 +5217,36 @@
       <c r="E71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H71" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I71" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="2">
         <v>0</v>
       </c>
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="3">
         <v>0</v>
       </c>
       <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>177</v>
       </c>
@@ -5093,35 +5262,36 @@
       <c r="E72" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <v>0</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="3">
         <v>0</v>
       </c>
       <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>178</v>
       </c>
@@ -5137,35 +5307,36 @@
       <c r="E73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I73" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
         <v>2612</v>
       </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
       <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M73" s="2">
-        <v>0</v>
-      </c>
       <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>181</v>
       </c>
@@ -5181,35 +5352,36 @@
       <c r="E74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I74" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <v>0</v>
       </c>
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="3">
         <v>0</v>
       </c>
       <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>182</v>
       </c>
@@ -5225,35 +5397,36 @@
       <c r="E75" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I75" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <v>0</v>
       </c>
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="3">
         <v>0</v>
       </c>
       <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>183</v>
       </c>
@@ -5269,35 +5442,36 @@
       <c r="E76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I76" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>184</v>
       </c>
@@ -5313,35 +5487,36 @@
       <c r="E77" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I77" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
         <v>2611</v>
       </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
       <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
         <v>0.99919999999999998</v>
       </c>
-      <c r="M77" s="2">
-        <v>0</v>
-      </c>
       <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>186</v>
       </c>
@@ -5357,35 +5532,36 @@
       <c r="E78" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I78" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J78" s="2">
         <v>0</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <v>0</v>
       </c>
       <c r="L78" s="3">
         <v>0</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="3">
         <v>0</v>
       </c>
       <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>187</v>
       </c>
@@ -5401,35 +5577,36 @@
       <c r="E79" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I79" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J79" s="2">
         <v>0</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="2">
         <v>0</v>
       </c>
       <c r="L79" s="3">
         <v>0</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="3">
         <v>0</v>
       </c>
       <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -5445,35 +5622,36 @@
       <c r="E80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H80" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I80" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J80" s="2">
         <v>0</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <v>0</v>
       </c>
       <c r="L80" s="3">
         <v>0</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="3">
         <v>0</v>
       </c>
       <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>189</v>
       </c>
@@ -5489,35 +5667,36 @@
       <c r="E81" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J81" s="2">
         <v>0</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>190</v>
       </c>
@@ -5533,35 +5712,36 @@
       <c r="E82" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I82" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J82" s="2">
         <v>0</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <v>0</v>
       </c>
       <c r="L82" s="3">
         <v>0</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="3">
         <v>0</v>
       </c>
       <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>191</v>
       </c>
@@ -5577,35 +5757,36 @@
       <c r="E83" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
         <v>2612</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="M83" s="2">
-        <v>0</v>
-      </c>
       <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>194</v>
       </c>
@@ -5621,35 +5802,36 @@
       <c r="E84" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I84" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J84" s="2">
         <v>0</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="2">
         <v>0</v>
       </c>
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="3">
         <v>0</v>
       </c>
       <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>197</v>
       </c>
@@ -5665,35 +5847,36 @@
       <c r="E85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I85" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <v>0</v>
       </c>
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="3">
         <v>0</v>
       </c>
       <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>198</v>
       </c>
@@ -5709,35 +5892,36 @@
       <c r="E86" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I86" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J86" s="2">
         <v>0</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <v>0</v>
       </c>
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="3">
         <v>0</v>
       </c>
       <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>199</v>
       </c>
@@ -5753,35 +5937,36 @@
       <c r="E87" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I87" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <v>0</v>
       </c>
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="3">
         <v>0</v>
       </c>
       <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>200</v>
       </c>
@@ -5797,35 +5982,36 @@
       <c r="E88" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I88" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <v>0</v>
       </c>
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="3">
         <v>0</v>
       </c>
       <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>201</v>
       </c>
@@ -5841,35 +6027,36 @@
       <c r="E89" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J89" s="2">
         <v>0</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="2">
         <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N89" s="2">
+      <c r="O89" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>207</v>
       </c>
@@ -5885,35 +6072,36 @@
       <c r="E90" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I90" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="2">
         <v>0</v>
       </c>
       <c r="L90" s="3">
         <v>0</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N90" s="2">
+      <c r="O90" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>210</v>
       </c>
@@ -5929,35 +6117,36 @@
       <c r="E91" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="2">
         <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N91" s="2">
+      <c r="O91" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>212</v>
       </c>
@@ -5973,35 +6162,36 @@
       <c r="E92" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H92" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I92" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="2">
         <v>0</v>
       </c>
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N92" s="2">
+      <c r="O92" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>215</v>
       </c>
@@ -6017,35 +6207,36 @@
       <c r="E93" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <v>0</v>
       </c>
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N93" s="2">
+      <c r="O93" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>217</v>
       </c>
@@ -6061,35 +6252,36 @@
       <c r="E94" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="2">
         <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N94" s="2">
+      <c r="O94" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>219</v>
       </c>
@@ -6105,35 +6297,36 @@
       <c r="E95" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I95" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="2">
         <v>0</v>
       </c>
       <c r="L95" s="3">
         <v>0</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N95" s="2">
+      <c r="O95" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>220</v>
       </c>
@@ -6149,35 +6342,36 @@
       <c r="E96" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I96" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="2">
         <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N96" s="2">
+      <c r="O96" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>221</v>
       </c>
@@ -6193,35 +6387,36 @@
       <c r="E97" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I97" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="2">
         <v>0</v>
       </c>
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N97" s="2">
+      <c r="O97" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>223</v>
       </c>
@@ -6237,35 +6432,36 @@
       <c r="E98" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H98" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I98" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J98" s="2">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
         <v>3</v>
       </c>
-      <c r="K98" s="3">
-        <v>0</v>
-      </c>
       <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="N98" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N98" s="2">
+      <c r="O98" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>225</v>
       </c>
@@ -6281,35 +6477,36 @@
       <c r="E99" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I99" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="2">
         <v>0</v>
       </c>
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N99" s="2">
+      <c r="O99" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>227</v>
       </c>
@@ -6325,35 +6522,36 @@
       <c r="E100" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J100" s="2">
         <v>0</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="2">
         <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N100" s="2">
+      <c r="O100" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>230</v>
       </c>
@@ -6369,35 +6567,36 @@
       <c r="E101" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="2">
         <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N101" s="2">
+      <c r="O101" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>233</v>
       </c>
@@ -6413,35 +6612,36 @@
       <c r="E102" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="2">
         <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N102" s="2">
+      <c r="O102" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>235</v>
       </c>
@@ -6457,35 +6657,36 @@
       <c r="E103" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I103" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="2">
         <v>0</v>
       </c>
       <c r="L103" s="3">
         <v>0</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N103" s="2">
+      <c r="O103" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>237</v>
       </c>
@@ -6501,35 +6702,36 @@
       <c r="E104" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I104" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
         <v>2</v>
       </c>
-      <c r="K104" s="3">
-        <v>0</v>
-      </c>
       <c r="L104" s="3">
+        <v>0</v>
+      </c>
+      <c r="M104" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M104" s="2" t="s">
+      <c r="N104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N104" s="2">
+      <c r="O104" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>240</v>
       </c>
@@ -6545,35 +6747,36 @@
       <c r="E105" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I105" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="2">
         <v>0</v>
       </c>
       <c r="L105" s="3">
         <v>0</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N105" s="2">
+      <c r="O105" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>243</v>
       </c>
@@ -6589,35 +6792,36 @@
       <c r="E106" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I106" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="2">
         <v>0</v>
       </c>
       <c r="L106" s="3">
         <v>0</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N106" s="2">
+      <c r="O106" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>245</v>
       </c>
@@ -6633,35 +6837,36 @@
       <c r="E107" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="2">
         <v>0</v>
       </c>
       <c r="L107" s="3">
         <v>0</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N107" s="2">
+      <c r="O107" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>247</v>
       </c>
@@ -6677,35 +6882,36 @@
       <c r="E108" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I108" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="2">
         <v>0</v>
       </c>
       <c r="L108" s="3">
         <v>0</v>
       </c>
-      <c r="M108" s="2">
+      <c r="M108" s="3">
         <v>0</v>
       </c>
       <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>248</v>
       </c>
@@ -6721,35 +6927,36 @@
       <c r="E109" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H109" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I109" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="2">
         <v>0</v>
       </c>
       <c r="L109" s="3">
         <v>0</v>
       </c>
-      <c r="M109" s="2">
+      <c r="M109" s="3">
         <v>0</v>
       </c>
       <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>252</v>
       </c>
@@ -6765,35 +6972,36 @@
       <c r="E110" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I110" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="2">
         <v>0</v>
       </c>
       <c r="L110" s="3">
         <v>0</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110" s="3">
         <v>0</v>
       </c>
       <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>255</v>
       </c>
@@ -6809,35 +7017,36 @@
       <c r="E111" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I111" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="2">
         <v>0</v>
       </c>
       <c r="L111" s="3">
         <v>0</v>
       </c>
-      <c r="M111" s="2">
+      <c r="M111" s="3">
         <v>0</v>
       </c>
       <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>258</v>
       </c>
@@ -6853,35 +7062,36 @@
       <c r="E112" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H112" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I112" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="2">
         <v>0</v>
       </c>
       <c r="L112" s="3">
         <v>0</v>
       </c>
-      <c r="M112" s="2">
+      <c r="M112" s="3">
         <v>0</v>
       </c>
       <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>261</v>
       </c>
@@ -6897,35 +7107,36 @@
       <c r="E113" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H113" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I113" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="2">
         <v>0</v>
       </c>
       <c r="L113" s="3">
         <v>0</v>
       </c>
-      <c r="M113" s="2">
+      <c r="M113" s="3">
         <v>0</v>
       </c>
       <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>264</v>
       </c>
@@ -6941,35 +7152,36 @@
       <c r="E114" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H114" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I114" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="2">
         <v>0</v>
       </c>
       <c r="L114" s="3">
         <v>0</v>
       </c>
-      <c r="M114" s="2">
+      <c r="M114" s="3">
         <v>0</v>
       </c>
       <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>267</v>
       </c>
@@ -6985,35 +7197,36 @@
       <c r="E115" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I115" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J115" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K115" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <v>2613</v>
       </c>
       <c r="L115" s="3">
-        <v>1</v>
-      </c>
-      <c r="M115" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M115" s="3">
+        <v>1</v>
       </c>
       <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>270</v>
       </c>
@@ -7029,35 +7242,36 @@
       <c r="E116" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I116" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J116" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K116" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K116" s="2">
+        <v>2613</v>
       </c>
       <c r="L116" s="3">
-        <v>1</v>
-      </c>
-      <c r="M116" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M116" s="3">
+        <v>1</v>
       </c>
       <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>272</v>
       </c>
@@ -7073,35 +7287,36 @@
       <c r="E117" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H117" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I117" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J117" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K117" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K117" s="2">
+        <v>2613</v>
       </c>
       <c r="L117" s="3">
-        <v>1</v>
-      </c>
-      <c r="M117" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
+        <v>1</v>
       </c>
       <c r="N117" s="2">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>274</v>
       </c>
@@ -7117,35 +7332,36 @@
       <c r="E118" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I118" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J118" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K118" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K118" s="2">
+        <v>2613</v>
       </c>
       <c r="L118" s="3">
-        <v>1</v>
-      </c>
-      <c r="M118" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M118" s="3">
+        <v>1</v>
       </c>
       <c r="N118" s="2">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>275</v>
       </c>
@@ -7161,35 +7377,36 @@
       <c r="E119" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H119" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I119" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J119" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K119" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <v>2613</v>
       </c>
       <c r="L119" s="3">
-        <v>1</v>
-      </c>
-      <c r="M119" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M119" s="3">
+        <v>1</v>
       </c>
       <c r="N119" s="2">
+        <v>0</v>
+      </c>
+      <c r="O119" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>276</v>
       </c>
@@ -7205,35 +7422,36 @@
       <c r="E120" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I120" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J120" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K120" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K120" s="2">
+        <v>2613</v>
       </c>
       <c r="L120" s="3">
-        <v>1</v>
-      </c>
-      <c r="M120" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M120" s="3">
+        <v>1</v>
       </c>
       <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>277</v>
       </c>
@@ -7249,35 +7467,36 @@
       <c r="E121" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I121" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J121" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K121" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K121" s="2">
+        <v>2613</v>
       </c>
       <c r="L121" s="3">
-        <v>1</v>
-      </c>
-      <c r="M121" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M121" s="3">
+        <v>1</v>
       </c>
       <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>279</v>
       </c>
@@ -7293,35 +7512,36 @@
       <c r="E122" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H122" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I122" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J122" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K122" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <v>2613</v>
       </c>
       <c r="L122" s="3">
-        <v>1</v>
-      </c>
-      <c r="M122" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M122" s="3">
+        <v>1</v>
       </c>
       <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>280</v>
       </c>
@@ -7337,35 +7557,36 @@
       <c r="E123" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I123" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J123" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K123" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K123" s="2">
+        <v>2613</v>
       </c>
       <c r="L123" s="3">
-        <v>1</v>
-      </c>
-      <c r="M123" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M123" s="3">
+        <v>1</v>
       </c>
       <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>281</v>
       </c>
@@ -7381,35 +7602,36 @@
       <c r="E124" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H124" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I124" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J124" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K124" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>2613</v>
       </c>
       <c r="L124" s="3">
-        <v>1</v>
-      </c>
-      <c r="M124" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M124" s="3">
+        <v>1</v>
       </c>
       <c r="N124" s="2">
+        <v>0</v>
+      </c>
+      <c r="O124" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>282</v>
       </c>
@@ -7425,35 +7647,36 @@
       <c r="E125" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H125" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I125" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J125" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K125" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K125" s="2">
+        <v>2613</v>
       </c>
       <c r="L125" s="3">
-        <v>1</v>
-      </c>
-      <c r="M125" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M125" s="3">
+        <v>1</v>
       </c>
       <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="O125" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>283</v>
       </c>
@@ -7469,35 +7692,36 @@
       <c r="E126" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I126" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J126" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K126" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K126" s="2">
+        <v>2613</v>
       </c>
       <c r="L126" s="3">
-        <v>1</v>
-      </c>
-      <c r="M126" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M126" s="3">
+        <v>1</v>
       </c>
       <c r="N126" s="2">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>284</v>
       </c>
@@ -7513,35 +7737,36 @@
       <c r="E127" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H127" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I127" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J127" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K127" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K127" s="2">
+        <v>2613</v>
       </c>
       <c r="L127" s="3">
-        <v>1</v>
-      </c>
-      <c r="M127" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M127" s="3">
+        <v>1</v>
       </c>
       <c r="N127" s="2">
+        <v>0</v>
+      </c>
+      <c r="O127" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>285</v>
       </c>
@@ -7557,35 +7782,36 @@
       <c r="E128" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H128" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I128" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J128" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K128" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>2613</v>
       </c>
       <c r="L128" s="3">
-        <v>1</v>
-      </c>
-      <c r="M128" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M128" s="3">
+        <v>1</v>
       </c>
       <c r="N128" s="2">
+        <v>0</v>
+      </c>
+      <c r="O128" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>286</v>
       </c>
@@ -7601,35 +7827,36 @@
       <c r="E129" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F129" s="2"/>
       <c r="G129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H129" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I129" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J129" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K129" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>2613</v>
       </c>
       <c r="L129" s="3">
-        <v>1</v>
-      </c>
-      <c r="M129" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M129" s="3">
+        <v>1</v>
       </c>
       <c r="N129" s="2">
+        <v>0</v>
+      </c>
+      <c r="O129" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>287</v>
       </c>
@@ -7645,35 +7872,36 @@
       <c r="E130" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H130" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I130" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J130" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K130" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>2613</v>
       </c>
       <c r="L130" s="3">
-        <v>1</v>
-      </c>
-      <c r="M130" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M130" s="3">
+        <v>1</v>
       </c>
       <c r="N130" s="2">
+        <v>0</v>
+      </c>
+      <c r="O130" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>288</v>
       </c>
@@ -7689,35 +7917,36 @@
       <c r="E131" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F131" s="2"/>
       <c r="G131" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I131" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J131" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K131" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>2613</v>
       </c>
       <c r="L131" s="3">
-        <v>1</v>
-      </c>
-      <c r="M131" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M131" s="3">
+        <v>1</v>
       </c>
       <c r="N131" s="2">
+        <v>0</v>
+      </c>
+      <c r="O131" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>289</v>
       </c>
@@ -7733,35 +7962,36 @@
       <c r="E132" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H132" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I132" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J132" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K132" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K132" s="2">
+        <v>2613</v>
       </c>
       <c r="L132" s="3">
-        <v>1</v>
-      </c>
-      <c r="M132" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M132" s="3">
+        <v>1</v>
       </c>
       <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="O132" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>290</v>
       </c>
@@ -7777,35 +8007,36 @@
       <c r="E133" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H133" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I133" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J133" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K133" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <v>2613</v>
       </c>
       <c r="L133" s="3">
-        <v>1</v>
-      </c>
-      <c r="M133" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M133" s="3">
+        <v>1</v>
       </c>
       <c r="N133" s="2">
+        <v>0</v>
+      </c>
+      <c r="O133" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>291</v>
       </c>
@@ -7821,35 +8052,36 @@
       <c r="E134" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H134" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I134" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J134" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K134" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K134" s="2">
+        <v>2613</v>
       </c>
       <c r="L134" s="3">
-        <v>1</v>
-      </c>
-      <c r="M134" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M134" s="3">
+        <v>1</v>
       </c>
       <c r="N134" s="2">
+        <v>0</v>
+      </c>
+      <c r="O134" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>292</v>
       </c>
@@ -7865,35 +8097,36 @@
       <c r="E135" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H135" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I135" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J135" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K135" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <v>2613</v>
       </c>
       <c r="L135" s="3">
-        <v>1</v>
-      </c>
-      <c r="M135" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M135" s="3">
+        <v>1</v>
       </c>
       <c r="N135" s="2">
+        <v>0</v>
+      </c>
+      <c r="O135" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>293</v>
       </c>
@@ -7909,35 +8142,36 @@
       <c r="E136" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H136" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I136" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J136" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K136" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K136" s="2">
+        <v>2613</v>
       </c>
       <c r="L136" s="3">
-        <v>1</v>
-      </c>
-      <c r="M136" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M136" s="3">
+        <v>1</v>
       </c>
       <c r="N136" s="2">
+        <v>0</v>
+      </c>
+      <c r="O136" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>294</v>
       </c>
@@ -7953,35 +8187,36 @@
       <c r="E137" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H137" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I137" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J137" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K137" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <v>2613</v>
       </c>
       <c r="L137" s="3">
-        <v>1</v>
-      </c>
-      <c r="M137" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M137" s="3">
+        <v>1</v>
       </c>
       <c r="N137" s="2">
+        <v>0</v>
+      </c>
+      <c r="O137" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>295</v>
       </c>
@@ -7997,35 +8232,36 @@
       <c r="E138" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F138" s="2"/>
       <c r="G138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H138" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I138" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J138" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K138" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>2613</v>
       </c>
       <c r="L138" s="3">
-        <v>1</v>
-      </c>
-      <c r="M138" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M138" s="3">
+        <v>1</v>
       </c>
       <c r="N138" s="2">
+        <v>0</v>
+      </c>
+      <c r="O138" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>296</v>
       </c>
@@ -8041,35 +8277,36 @@
       <c r="E139" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F139" s="2"/>
       <c r="G139" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H139" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I139" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J139" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K139" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K139" s="2">
+        <v>2613</v>
       </c>
       <c r="L139" s="3">
-        <v>1</v>
-      </c>
-      <c r="M139" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M139" s="3">
+        <v>1</v>
       </c>
       <c r="N139" s="2">
+        <v>0</v>
+      </c>
+      <c r="O139" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>297</v>
       </c>
@@ -8085,35 +8322,36 @@
       <c r="E140" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H140" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I140" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J140" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K140" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <v>2613</v>
       </c>
       <c r="L140" s="3">
-        <v>1</v>
-      </c>
-      <c r="M140" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M140" s="3">
+        <v>1</v>
       </c>
       <c r="N140" s="2">
+        <v>0</v>
+      </c>
+      <c r="O140" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>298</v>
       </c>
@@ -8129,35 +8367,36 @@
       <c r="E141" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H141" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I141" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J141" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K141" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K141" s="2">
+        <v>2613</v>
       </c>
       <c r="L141" s="3">
-        <v>1</v>
-      </c>
-      <c r="M141" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M141" s="3">
+        <v>1</v>
       </c>
       <c r="N141" s="2">
+        <v>0</v>
+      </c>
+      <c r="O141" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>299</v>
       </c>
@@ -8173,35 +8412,36 @@
       <c r="E142" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F142" s="2"/>
       <c r="G142" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H142" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I142" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J142" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K142" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K142" s="2">
+        <v>2613</v>
       </c>
       <c r="L142" s="3">
-        <v>1</v>
-      </c>
-      <c r="M142" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M142" s="3">
+        <v>1</v>
       </c>
       <c r="N142" s="2">
+        <v>0</v>
+      </c>
+      <c r="O142" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>300</v>
       </c>
@@ -8217,35 +8457,36 @@
       <c r="E143" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F143" s="2"/>
       <c r="G143" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H143" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I143" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J143" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K143" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>2613</v>
       </c>
       <c r="L143" s="3">
-        <v>1</v>
-      </c>
-      <c r="M143" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M143" s="3">
+        <v>1</v>
       </c>
       <c r="N143" s="2">
+        <v>0</v>
+      </c>
+      <c r="O143" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>301</v>
       </c>
@@ -8261,35 +8502,36 @@
       <c r="E144" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H144" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I144" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J144" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K144" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>2613</v>
       </c>
       <c r="L144" s="3">
-        <v>1</v>
-      </c>
-      <c r="M144" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M144" s="3">
+        <v>1</v>
       </c>
       <c r="N144" s="2">
+        <v>0</v>
+      </c>
+      <c r="O144" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>302</v>
       </c>
@@ -8305,35 +8547,36 @@
       <c r="E145" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F145" s="2"/>
       <c r="G145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H145" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I145" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J145" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K145" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K145" s="2">
+        <v>2613</v>
       </c>
       <c r="L145" s="3">
-        <v>1</v>
-      </c>
-      <c r="M145" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M145" s="3">
+        <v>1</v>
       </c>
       <c r="N145" s="2">
+        <v>0</v>
+      </c>
+      <c r="O145" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>303</v>
       </c>
@@ -8349,35 +8592,36 @@
       <c r="E146" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H146" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I146" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J146" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K146" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>2613</v>
       </c>
       <c r="L146" s="3">
-        <v>1</v>
-      </c>
-      <c r="M146" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M146" s="3">
+        <v>1</v>
       </c>
       <c r="N146" s="2">
+        <v>0</v>
+      </c>
+      <c r="O146" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>304</v>
       </c>
@@ -8393,35 +8637,36 @@
       <c r="E147" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H147" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I147" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J147" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K147" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>2613</v>
       </c>
       <c r="L147" s="3">
-        <v>1</v>
-      </c>
-      <c r="M147" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M147" s="3">
+        <v>1</v>
       </c>
       <c r="N147" s="2">
+        <v>0</v>
+      </c>
+      <c r="O147" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>305</v>
       </c>
@@ -8437,35 +8682,36 @@
       <c r="E148" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H148" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I148" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J148" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K148" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K148" s="2">
+        <v>2613</v>
       </c>
       <c r="L148" s="3">
-        <v>1</v>
-      </c>
-      <c r="M148" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M148" s="3">
+        <v>1</v>
       </c>
       <c r="N148" s="2">
+        <v>0</v>
+      </c>
+      <c r="O148" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>306</v>
       </c>
@@ -8481,35 +8727,36 @@
       <c r="E149" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H149" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I149" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J149" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K149" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>2613</v>
       </c>
       <c r="L149" s="3">
-        <v>1</v>
-      </c>
-      <c r="M149" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M149" s="3">
+        <v>1</v>
       </c>
       <c r="N149" s="2">
+        <v>0</v>
+      </c>
+      <c r="O149" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>307</v>
       </c>
@@ -8525,35 +8772,36 @@
       <c r="E150" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H150" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I150" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J150" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K150" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>2613</v>
       </c>
       <c r="L150" s="3">
-        <v>1</v>
-      </c>
-      <c r="M150" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M150" s="3">
+        <v>1</v>
       </c>
       <c r="N150" s="2">
+        <v>0</v>
+      </c>
+      <c r="O150" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>308</v>
       </c>
@@ -8569,35 +8817,36 @@
       <c r="E151" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F151" s="2"/>
       <c r="G151" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H151" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I151" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J151" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K151" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K151" s="2">
+        <v>2613</v>
       </c>
       <c r="L151" s="3">
-        <v>1</v>
-      </c>
-      <c r="M151" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M151" s="3">
+        <v>1</v>
       </c>
       <c r="N151" s="2">
+        <v>0</v>
+      </c>
+      <c r="O151" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>309</v>
       </c>
@@ -8613,35 +8862,36 @@
       <c r="E152" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H152" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I152" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J152" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K152" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>2613</v>
       </c>
       <c r="L152" s="3">
-        <v>1</v>
-      </c>
-      <c r="M152" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M152" s="3">
+        <v>1</v>
       </c>
       <c r="N152" s="2">
+        <v>0</v>
+      </c>
+      <c r="O152" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>310</v>
       </c>
@@ -8657,35 +8907,36 @@
       <c r="E153" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H153" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I153" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J153" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K153" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>2613</v>
       </c>
       <c r="L153" s="3">
-        <v>1</v>
-      </c>
-      <c r="M153" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M153" s="3">
+        <v>1</v>
       </c>
       <c r="N153" s="2">
+        <v>0</v>
+      </c>
+      <c r="O153" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>311</v>
       </c>
@@ -8701,29 +8952,30 @@
       <c r="E154" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F154" s="2"/>
       <c r="G154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H154" s="2">
-        <v>2613</v>
+        <v>4</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I154" s="2">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="J154" s="2">
-        <v>2613</v>
-      </c>
-      <c r="K154" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K154" s="2">
+        <v>2613</v>
       </c>
       <c r="L154" s="3">
-        <v>1</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M154" s="3">
+        <v>1</v>
+      </c>
       <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
